--- a/team_specific_matrix/Northern N.M._B.xlsx
+++ b/team_specific_matrix/Northern N.M._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.21875</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.15625</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1875</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06666666666666667</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.06666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4444444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S7">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1176470588235294</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.02941176470588235</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02941176470588235</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02941176470588235</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2941176470588235</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="R8">
-        <v>0.05882352941176471</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="S8">
-        <v>0.4411764705882353</v>
+        <v>0.3773584905660378</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.3</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.16</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07000000000000001</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.24</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="R10">
-        <v>0.11</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="S10">
-        <v>0.33</v>
+        <v>0.3429951690821256</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4615384615384616</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4615384615384616</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K12">
-        <v>0.07692307692307693</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03846153846153846</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1923076923076923</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
-        <v>0.03846153846153846</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J15">
-        <v>0.2307692307692308</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03846153846153846</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1153846153846154</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2692307692307692</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.05555555555555555</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.2222222222222222</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K16">
-        <v>0.2222222222222222</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2222222222222222</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2222222222222222</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.175</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K17">
-        <v>0.075</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.025</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.075</v>
+        <v>0.1168831168831169</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J18">
-        <v>0.7142857142857143</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07142857142857142</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.04950495049504951</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1881188118811881</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="I19">
-        <v>0.0396039603960396</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="J19">
-        <v>0.3960396039603961</v>
+        <v>0.4195402298850575</v>
       </c>
       <c r="K19">
-        <v>0.0594059405940594</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1089108910891089</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1584158415841584</v>
+        <v>0.1264367816091954</v>
       </c>
     </row>
   </sheetData>
